--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3097489.027848091</v>
+        <v>3094917.073330185</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>325.0967979665126</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>9.283029612712731</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>52.33159926298225</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>271.7612099808829</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.75446130335949</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>171.0136703767084</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35.67764259955304</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>55.90923991536285</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>90.04875807993751</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.22340015155995</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>80.08971311158803</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.0157691544086</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428257</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1315.737983561872</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>946.7754666214607</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>946.7754666214607</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>946.7754666214607</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>535.7895618318532</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.337823625994</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.2060027641987</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>864.6405432696254</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>485.9377865134672</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>120.7265871575132</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2367.614128840753</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2014.845473570639</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1641.379715309559</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.240383333747</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>403.6754589963297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>234.6756587346621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>76.92728616719222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1507.089911220685</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>1138.127394280273</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>779.8616956735225</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>394.0734430752782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2352.320593358976</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>2021.257706015405</v>
       </c>
       <c r="W8" t="n">
-        <v>1893.689751284806</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="X8" t="n">
-        <v>1893.689751284806</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="Y8" t="n">
-        <v>1893.689751284806</v>
+        <v>1668.489050745291</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3069090307625</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610023</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610023</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610023</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610023</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5255,28 +5255,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5297,19 +5297,19 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245697</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836023</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556954</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.294644713842</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245697</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403286</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5738,28 +5738,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,10 +5768,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890283</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.11872044489</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684177</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452597</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718121</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.528408326419</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,7 +6242,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,13 +6689,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589157</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143764</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7081,13 +7081,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,19 +7643,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7664,34 +7664,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7731,13 +7731,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-2.159775989708408e-12</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-1.193437869074672e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R20" t="n">
-        <v>-1.193437869074672e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10124,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.6085800303773</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>68.52575990662433</v>
+        <v>44.7370056418716</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346286</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328097</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194129</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219408</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>40.32043864788525</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846414</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846412</v>
-      </c>
       <c r="E2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670392</v>
+        <v>5067.592601670416</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670388</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670439</v>
+        <v>5067.59260167042</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670423</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.59260167042</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670425</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670453</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670443</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-176005.9588210446</v>
+        <v>-176005.9588210447</v>
       </c>
       <c r="C6" t="n">
+        <v>413961.9203935005</v>
+      </c>
+      <c r="D6" t="n">
         <v>413961.9203935001</v>
       </c>
-      <c r="D6" t="n">
-        <v>413961.9203935002</v>
-      </c>
       <c r="E6" t="n">
-        <v>-364488.290446781</v>
+        <v>-364523.0283722169</v>
       </c>
       <c r="F6" t="n">
-        <v>579884.4873109281</v>
+        <v>579849.7493854926</v>
       </c>
       <c r="G6" t="n">
-        <v>579884.4873109281</v>
+        <v>579849.7493854929</v>
       </c>
       <c r="H6" t="n">
-        <v>579884.4873109281</v>
+        <v>579849.7493854924</v>
       </c>
       <c r="I6" t="n">
-        <v>579884.4873109283</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="J6" t="n">
-        <v>403461.2681183357</v>
+        <v>403426.5301928995</v>
       </c>
       <c r="K6" t="n">
-        <v>579884.4873109283</v>
+        <v>579849.7493854924</v>
       </c>
       <c r="L6" t="n">
-        <v>579884.4873109283</v>
+        <v>579849.7493854923</v>
       </c>
       <c r="M6" t="n">
-        <v>455675.9766028697</v>
+        <v>455641.2386774338</v>
       </c>
       <c r="N6" t="n">
-        <v>579884.4873109281</v>
+        <v>579849.7493854928</v>
       </c>
       <c r="O6" t="n">
-        <v>579884.4873109283</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="P6" t="n">
-        <v>579884.4873109283</v>
+        <v>579849.7493854924</v>
       </c>
     </row>
   </sheetData>
@@ -26793,16 +26793,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245875</v>
+        <v>990.2318361245874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>88.68737205428238</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>360.4480710657563</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>141.9938968421883</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27585,19 +27585,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663784</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>99.599716981879</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>55.99104848925197</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>112.2111604889787</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.4847882031431</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>235.8623753650031</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>138.7380702094185</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>111.337581183265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>196.2331161620402</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-5.656949185851152e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,31 +32315,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,37 +32546,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963265</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214701</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32871,31 +32871,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
         <v>0.1345549672467222</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>200.3460366764701</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L8" t="n">
         <v>421.5361394435301</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902929</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>283.5755383312246</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164524</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071399</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,10 +36844,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>57.74979223202568</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
